--- a/Bang-Phan-cong-Cong-viec.xlsx
+++ b/Bang-Phan-cong-Cong-viec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nhom2-mb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DD79BC-F59B-4486-BA21-BE79FEAC5E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BF673-BF5C-43AC-8D58-DB43B2E640B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{1A617EEA-29CA-43CA-8953-A08AC8DC7886}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>api signup</t>
   </si>
   <si>
-    <t>Sản Phẩm api</t>
-  </si>
-  <si>
     <t>Quên Mật Khẩu</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Đặt Hàng</t>
+  </si>
+  <si>
+    <t>Sản Phẩm và chi tiết sp api</t>
   </si>
 </sst>
 </file>
@@ -309,6 +309,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -341,12 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +758,7 @@
   <dimension ref="A4:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="A26:G26"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -774,101 +774,101 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>17</v>
@@ -1119,7 +1119,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
@@ -1140,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -1161,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>17</v>
@@ -1179,11 +1179,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
@@ -1192,6 +1187,11 @@
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bang-Phan-cong-Cong-viec.xlsx
+++ b/Bang-Phan-cong-Cong-viec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nhom2-mb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Flutter_Projects\Nhom2-mb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BF673-BF5C-43AC-8D58-DB43B2E640B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FAF1E4-98A5-4B7A-AD97-F84E66AEAB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{1A617EEA-29CA-43CA-8953-A08AC8DC7886}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A617EEA-29CA-43CA-8953-A08AC8DC7886}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,44 +309,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +758,7 @@
   <dimension ref="A4:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -774,101 +774,101 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1143,13 +1143,13 @@
         <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="E25" s="7">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="F25" s="8">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="7">
         <v>45092</v>
@@ -1179,6 +1179,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
@@ -1187,11 +1192,6 @@
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
